--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_138.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_138.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d11679262-Reviews-Country_Inn_Suites_by_Radisson_Anaheim_CA-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>547</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Country-Inn-Suites-By-Radisson.h16169286.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_138.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_138.xlsx
@@ -7122,7 +7122,7 @@
         <v>65781</v>
       </c>
       <c r="B2" t="n">
-        <v>131708</v>
+        <v>162480</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -7193,7 +7193,7 @@
         <v>65781</v>
       </c>
       <c r="B3" t="n">
-        <v>131709</v>
+        <v>162481</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -7268,7 +7268,7 @@
         <v>65781</v>
       </c>
       <c r="B4" t="n">
-        <v>131710</v>
+        <v>162482</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -7343,7 +7343,7 @@
         <v>65781</v>
       </c>
       <c r="B5" t="n">
-        <v>131711</v>
+        <v>162483</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -7416,7 +7416,7 @@
         <v>65781</v>
       </c>
       <c r="B6" t="n">
-        <v>131712</v>
+        <v>162484</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -7491,7 +7491,7 @@
         <v>65781</v>
       </c>
       <c r="B7" t="n">
-        <v>131713</v>
+        <v>162485</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -7566,7 +7566,7 @@
         <v>65781</v>
       </c>
       <c r="B8" t="n">
-        <v>131714</v>
+        <v>162486</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -7641,7 +7641,7 @@
         <v>65781</v>
       </c>
       <c r="B9" t="n">
-        <v>131715</v>
+        <v>162487</v>
       </c>
       <c r="C9" t="s">
         <v>95</v>
@@ -7706,7 +7706,7 @@
         <v>65781</v>
       </c>
       <c r="B10" t="n">
-        <v>131716</v>
+        <v>162488</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -7771,7 +7771,7 @@
         <v>65781</v>
       </c>
       <c r="B11" t="n">
-        <v>131717</v>
+        <v>162489</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
@@ -7836,7 +7836,7 @@
         <v>65781</v>
       </c>
       <c r="B12" t="n">
-        <v>131718</v>
+        <v>162490</v>
       </c>
       <c r="C12" t="s">
         <v>116</v>
@@ -7907,7 +7907,7 @@
         <v>65781</v>
       </c>
       <c r="B13" t="n">
-        <v>131719</v>
+        <v>162491</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -8043,7 +8043,7 @@
         <v>65781</v>
       </c>
       <c r="B15" t="n">
-        <v>131720</v>
+        <v>162492</v>
       </c>
       <c r="C15" t="s">
         <v>142</v>
@@ -8114,7 +8114,7 @@
         <v>65781</v>
       </c>
       <c r="B16" t="n">
-        <v>131721</v>
+        <v>162493</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
@@ -8185,7 +8185,7 @@
         <v>65781</v>
       </c>
       <c r="B17" t="n">
-        <v>131722</v>
+        <v>162494</v>
       </c>
       <c r="C17" t="s">
         <v>156</v>
@@ -8260,7 +8260,7 @@
         <v>65781</v>
       </c>
       <c r="B18" t="n">
-        <v>131723</v>
+        <v>162495</v>
       </c>
       <c r="C18" t="s">
         <v>163</v>
@@ -8335,7 +8335,7 @@
         <v>65781</v>
       </c>
       <c r="B19" t="n">
-        <v>131724</v>
+        <v>162496</v>
       </c>
       <c r="C19" t="s">
         <v>172</v>
@@ -8473,7 +8473,7 @@
         <v>65781</v>
       </c>
       <c r="B21" t="n">
-        <v>131725</v>
+        <v>162497</v>
       </c>
       <c r="C21" t="s">
         <v>184</v>
@@ -8613,7 +8613,7 @@
         <v>65781</v>
       </c>
       <c r="B23" t="n">
-        <v>131726</v>
+        <v>162498</v>
       </c>
       <c r="C23" t="s">
         <v>198</v>
@@ -8674,7 +8674,7 @@
         <v>65781</v>
       </c>
       <c r="B24" t="n">
-        <v>131727</v>
+        <v>162499</v>
       </c>
       <c r="C24" t="s">
         <v>205</v>
@@ -8822,7 +8822,7 @@
         <v>65781</v>
       </c>
       <c r="B26" t="n">
-        <v>131728</v>
+        <v>162500</v>
       </c>
       <c r="C26" t="s">
         <v>215</v>
@@ -8887,7 +8887,7 @@
         <v>65781</v>
       </c>
       <c r="B27" t="n">
-        <v>131729</v>
+        <v>162501</v>
       </c>
       <c r="C27" t="s">
         <v>222</v>
@@ -9108,7 +9108,7 @@
         <v>65781</v>
       </c>
       <c r="B30" t="n">
-        <v>131730</v>
+        <v>162502</v>
       </c>
       <c r="C30" t="s">
         <v>245</v>
@@ -9173,7 +9173,7 @@
         <v>65781</v>
       </c>
       <c r="B31" t="n">
-        <v>131731</v>
+        <v>162503</v>
       </c>
       <c r="C31" t="s">
         <v>253</v>
@@ -9244,7 +9244,7 @@
         <v>65781</v>
       </c>
       <c r="B32" t="n">
-        <v>131732</v>
+        <v>162504</v>
       </c>
       <c r="C32" t="s">
         <v>259</v>
@@ -9309,7 +9309,7 @@
         <v>65781</v>
       </c>
       <c r="B33" t="n">
-        <v>131733</v>
+        <v>162505</v>
       </c>
       <c r="C33" t="s">
         <v>266</v>
@@ -9374,7 +9374,7 @@
         <v>65781</v>
       </c>
       <c r="B34" t="n">
-        <v>131734</v>
+        <v>162506</v>
       </c>
       <c r="C34" t="s">
         <v>273</v>
@@ -9514,7 +9514,7 @@
         <v>65781</v>
       </c>
       <c r="B36" t="n">
-        <v>131735</v>
+        <v>162507</v>
       </c>
       <c r="C36" t="s">
         <v>288</v>
@@ -9579,7 +9579,7 @@
         <v>65781</v>
       </c>
       <c r="B37" t="n">
-        <v>131736</v>
+        <v>162508</v>
       </c>
       <c r="C37" t="s">
         <v>294</v>
@@ -9705,7 +9705,7 @@
         <v>65781</v>
       </c>
       <c r="B39" t="n">
-        <v>131737</v>
+        <v>162509</v>
       </c>
       <c r="C39" t="s">
         <v>308</v>
@@ -9770,7 +9770,7 @@
         <v>65781</v>
       </c>
       <c r="B40" t="n">
-        <v>131738</v>
+        <v>162510</v>
       </c>
       <c r="C40" t="s">
         <v>314</v>
@@ -9910,7 +9910,7 @@
         <v>65781</v>
       </c>
       <c r="B42" t="n">
-        <v>131739</v>
+        <v>162511</v>
       </c>
       <c r="C42" t="s">
         <v>329</v>
@@ -9979,7 +9979,7 @@
         <v>65781</v>
       </c>
       <c r="B43" t="n">
-        <v>131740</v>
+        <v>162512</v>
       </c>
       <c r="C43" t="s">
         <v>335</v>
@@ -10174,7 +10174,7 @@
         <v>65781</v>
       </c>
       <c r="B46" t="n">
-        <v>131741</v>
+        <v>162513</v>
       </c>
       <c r="C46" t="s">
         <v>356</v>
@@ -10243,7 +10243,7 @@
         <v>65781</v>
       </c>
       <c r="B47" t="n">
-        <v>131742</v>
+        <v>162514</v>
       </c>
       <c r="C47" t="s">
         <v>365</v>
@@ -10308,7 +10308,7 @@
         <v>65781</v>
       </c>
       <c r="B48" t="n">
-        <v>131743</v>
+        <v>162515</v>
       </c>
       <c r="C48" t="s">
         <v>374</v>
@@ -10379,7 +10379,7 @@
         <v>65781</v>
       </c>
       <c r="B49" t="n">
-        <v>131744</v>
+        <v>162516</v>
       </c>
       <c r="C49" t="s">
         <v>381</v>
@@ -10647,7 +10647,7 @@
         <v>65781</v>
       </c>
       <c r="B53" t="n">
-        <v>131745</v>
+        <v>162517</v>
       </c>
       <c r="C53" t="s">
         <v>407</v>
@@ -10712,7 +10712,7 @@
         <v>65781</v>
       </c>
       <c r="B54" t="n">
-        <v>131746</v>
+        <v>162518</v>
       </c>
       <c r="C54" t="s">
         <v>416</v>
@@ -10781,7 +10781,7 @@
         <v>65781</v>
       </c>
       <c r="B55" t="n">
-        <v>131747</v>
+        <v>162519</v>
       </c>
       <c r="C55" t="s">
         <v>424</v>
@@ -10852,7 +10852,7 @@
         <v>65781</v>
       </c>
       <c r="B56" t="n">
-        <v>131748</v>
+        <v>162520</v>
       </c>
       <c r="C56" t="s">
         <v>430</v>
@@ -11000,7 +11000,7 @@
         <v>65781</v>
       </c>
       <c r="B58" t="n">
-        <v>131749</v>
+        <v>162521</v>
       </c>
       <c r="C58" t="s">
         <v>444</v>
@@ -11075,7 +11075,7 @@
         <v>65781</v>
       </c>
       <c r="B59" t="n">
-        <v>131750</v>
+        <v>162522</v>
       </c>
       <c r="C59" t="s">
         <v>450</v>
@@ -11215,7 +11215,7 @@
         <v>65781</v>
       </c>
       <c r="B61" t="n">
-        <v>131751</v>
+        <v>162523</v>
       </c>
       <c r="C61" t="s">
         <v>468</v>
@@ -11430,7 +11430,7 @@
         <v>65781</v>
       </c>
       <c r="B64" t="n">
-        <v>131752</v>
+        <v>162524</v>
       </c>
       <c r="C64" t="s">
         <v>489</v>
@@ -11505,7 +11505,7 @@
         <v>65781</v>
       </c>
       <c r="B65" t="n">
-        <v>131753</v>
+        <v>162525</v>
       </c>
       <c r="C65" t="s">
         <v>495</v>
@@ -11578,7 +11578,7 @@
         <v>65781</v>
       </c>
       <c r="B66" t="n">
-        <v>131754</v>
+        <v>162526</v>
       </c>
       <c r="C66" t="s">
         <v>501</v>
@@ -11653,7 +11653,7 @@
         <v>65781</v>
       </c>
       <c r="B67" t="n">
-        <v>131755</v>
+        <v>162527</v>
       </c>
       <c r="C67" t="s">
         <v>510</v>
@@ -11718,7 +11718,7 @@
         <v>65781</v>
       </c>
       <c r="B68" t="n">
-        <v>131756</v>
+        <v>162528</v>
       </c>
       <c r="C68" t="s">
         <v>517</v>
@@ -11783,7 +11783,7 @@
         <v>65781</v>
       </c>
       <c r="B69" t="n">
-        <v>131757</v>
+        <v>162529</v>
       </c>
       <c r="C69" t="s">
         <v>526</v>
@@ -11856,7 +11856,7 @@
         <v>65781</v>
       </c>
       <c r="B70" t="n">
-        <v>131758</v>
+        <v>162530</v>
       </c>
       <c r="C70" t="s">
         <v>531</v>
@@ -11931,7 +11931,7 @@
         <v>65781</v>
       </c>
       <c r="B71" t="n">
-        <v>131759</v>
+        <v>162531</v>
       </c>
       <c r="C71" t="s">
         <v>538</v>
@@ -12002,7 +12002,7 @@
         <v>65781</v>
       </c>
       <c r="B72" t="n">
-        <v>131760</v>
+        <v>162532</v>
       </c>
       <c r="C72" t="s">
         <v>545</v>
@@ -12077,7 +12077,7 @@
         <v>65781</v>
       </c>
       <c r="B73" t="n">
-        <v>131761</v>
+        <v>162533</v>
       </c>
       <c r="C73" t="s">
         <v>553</v>
@@ -12142,7 +12142,7 @@
         <v>65781</v>
       </c>
       <c r="B74" t="n">
-        <v>131762</v>
+        <v>162534</v>
       </c>
       <c r="C74" t="s">
         <v>560</v>
@@ -12217,7 +12217,7 @@
         <v>65781</v>
       </c>
       <c r="B75" t="n">
-        <v>131763</v>
+        <v>162535</v>
       </c>
       <c r="C75" t="s">
         <v>569</v>
@@ -12282,7 +12282,7 @@
         <v>65781</v>
       </c>
       <c r="B76" t="n">
-        <v>131764</v>
+        <v>162536</v>
       </c>
       <c r="C76" t="s">
         <v>575</v>
@@ -12357,7 +12357,7 @@
         <v>65781</v>
       </c>
       <c r="B77" t="n">
-        <v>131765</v>
+        <v>162537</v>
       </c>
       <c r="C77" t="s">
         <v>581</v>
@@ -12432,7 +12432,7 @@
         <v>65781</v>
       </c>
       <c r="B78" t="n">
-        <v>131766</v>
+        <v>162538</v>
       </c>
       <c r="C78" t="s">
         <v>590</v>
@@ -12505,7 +12505,7 @@
         <v>65781</v>
       </c>
       <c r="B79" t="n">
-        <v>131767</v>
+        <v>162539</v>
       </c>
       <c r="C79" t="s">
         <v>594</v>
@@ -12570,7 +12570,7 @@
         <v>65781</v>
       </c>
       <c r="B80" t="n">
-        <v>131768</v>
+        <v>162540</v>
       </c>
       <c r="C80" t="s">
         <v>601</v>
@@ -12639,7 +12639,7 @@
         <v>65781</v>
       </c>
       <c r="B81" t="n">
-        <v>131769</v>
+        <v>162541</v>
       </c>
       <c r="C81" t="s">
         <v>608</v>
@@ -12710,7 +12710,7 @@
         <v>65781</v>
       </c>
       <c r="B82" t="n">
-        <v>131770</v>
+        <v>162542</v>
       </c>
       <c r="C82" t="s">
         <v>615</v>
@@ -12779,7 +12779,7 @@
         <v>65781</v>
       </c>
       <c r="B83" t="n">
-        <v>131771</v>
+        <v>162543</v>
       </c>
       <c r="C83" t="s">
         <v>622</v>
@@ -12850,7 +12850,7 @@
         <v>65781</v>
       </c>
       <c r="B84" t="n">
-        <v>131772</v>
+        <v>162544</v>
       </c>
       <c r="C84" t="s">
         <v>632</v>
@@ -12919,7 +12919,7 @@
         <v>65781</v>
       </c>
       <c r="B85" t="n">
-        <v>131773</v>
+        <v>162545</v>
       </c>
       <c r="C85" t="s">
         <v>639</v>
@@ -13051,7 +13051,7 @@
         <v>65781</v>
       </c>
       <c r="B87" t="n">
-        <v>131774</v>
+        <v>162546</v>
       </c>
       <c r="C87" t="s">
         <v>657</v>
@@ -13116,7 +13116,7 @@
         <v>65781</v>
       </c>
       <c r="B88" t="n">
-        <v>131775</v>
+        <v>162547</v>
       </c>
       <c r="C88" t="s">
         <v>664</v>
@@ -13181,7 +13181,7 @@
         <v>65781</v>
       </c>
       <c r="B89" t="n">
-        <v>131776</v>
+        <v>162548</v>
       </c>
       <c r="C89" t="s">
         <v>671</v>
@@ -13256,7 +13256,7 @@
         <v>65781</v>
       </c>
       <c r="B90" t="n">
-        <v>131777</v>
+        <v>162549</v>
       </c>
       <c r="C90" t="s">
         <v>680</v>
@@ -13331,7 +13331,7 @@
         <v>65781</v>
       </c>
       <c r="B91" t="n">
-        <v>131778</v>
+        <v>162550</v>
       </c>
       <c r="C91" t="s">
         <v>686</v>
@@ -13396,7 +13396,7 @@
         <v>65781</v>
       </c>
       <c r="B92" t="n">
-        <v>131779</v>
+        <v>162551</v>
       </c>
       <c r="C92" t="s">
         <v>695</v>
@@ -13457,7 +13457,7 @@
         <v>65781</v>
       </c>
       <c r="B93" t="n">
-        <v>131780</v>
+        <v>162552</v>
       </c>
       <c r="C93" t="s">
         <v>704</v>
@@ -13591,7 +13591,7 @@
         <v>65781</v>
       </c>
       <c r="B95" t="n">
-        <v>131781</v>
+        <v>162553</v>
       </c>
       <c r="C95" t="s">
         <v>717</v>
@@ -13662,7 +13662,7 @@
         <v>65781</v>
       </c>
       <c r="B96" t="n">
-        <v>131782</v>
+        <v>162554</v>
       </c>
       <c r="C96" t="s">
         <v>726</v>
@@ -13733,7 +13733,7 @@
         <v>65781</v>
       </c>
       <c r="B97" t="n">
-        <v>131783</v>
+        <v>162555</v>
       </c>
       <c r="C97" t="s">
         <v>733</v>
@@ -13869,7 +13869,7 @@
         <v>65781</v>
       </c>
       <c r="B99" t="n">
-        <v>131784</v>
+        <v>162556</v>
       </c>
       <c r="C99" t="s">
         <v>749</v>
@@ -13944,7 +13944,7 @@
         <v>65781</v>
       </c>
       <c r="B100" t="n">
-        <v>131785</v>
+        <v>162557</v>
       </c>
       <c r="C100" t="s">
         <v>758</v>
@@ -14017,7 +14017,7 @@
         <v>65781</v>
       </c>
       <c r="B101" t="n">
-        <v>131786</v>
+        <v>162558</v>
       </c>
       <c r="C101" t="s">
         <v>761</v>
@@ -14090,7 +14090,7 @@
         <v>65781</v>
       </c>
       <c r="B102" t="n">
-        <v>131787</v>
+        <v>162559</v>
       </c>
       <c r="C102" t="s">
         <v>766</v>
@@ -14165,7 +14165,7 @@
         <v>65781</v>
       </c>
       <c r="B103" t="n">
-        <v>131788</v>
+        <v>162560</v>
       </c>
       <c r="C103" t="s">
         <v>772</v>
@@ -14305,7 +14305,7 @@
         <v>65781</v>
       </c>
       <c r="B105" t="n">
-        <v>131789</v>
+        <v>162561</v>
       </c>
       <c r="C105" t="s">
         <v>785</v>
@@ -14449,7 +14449,7 @@
         <v>65781</v>
       </c>
       <c r="B107" t="n">
-        <v>131790</v>
+        <v>162562</v>
       </c>
       <c r="C107" t="s">
         <v>799</v>
@@ -14524,7 +14524,7 @@
         <v>65781</v>
       </c>
       <c r="B108" t="n">
-        <v>131791</v>
+        <v>162563</v>
       </c>
       <c r="C108" t="s">
         <v>806</v>
@@ -14599,7 +14599,7 @@
         <v>65781</v>
       </c>
       <c r="B109" t="n">
-        <v>131792</v>
+        <v>162564</v>
       </c>
       <c r="C109" t="s">
         <v>812</v>
@@ -14674,7 +14674,7 @@
         <v>65781</v>
       </c>
       <c r="B110" t="n">
-        <v>131793</v>
+        <v>162565</v>
       </c>
       <c r="C110" t="s">
         <v>819</v>
@@ -14739,7 +14739,7 @@
         <v>65781</v>
       </c>
       <c r="B111" t="n">
-        <v>131794</v>
+        <v>162566</v>
       </c>
       <c r="C111" t="s">
         <v>828</v>
@@ -14814,7 +14814,7 @@
         <v>65781</v>
       </c>
       <c r="B112" t="n">
-        <v>131795</v>
+        <v>162567</v>
       </c>
       <c r="C112" t="s">
         <v>834</v>
@@ -14879,7 +14879,7 @@
         <v>65781</v>
       </c>
       <c r="B113" t="n">
-        <v>131796</v>
+        <v>162568</v>
       </c>
       <c r="C113" t="s">
         <v>841</v>
@@ -15029,7 +15029,7 @@
         <v>65781</v>
       </c>
       <c r="B115" t="n">
-        <v>131797</v>
+        <v>162569</v>
       </c>
       <c r="C115" t="s">
         <v>855</v>
@@ -15102,7 +15102,7 @@
         <v>65781</v>
       </c>
       <c r="B116" t="n">
-        <v>131798</v>
+        <v>162570</v>
       </c>
       <c r="C116" t="s">
         <v>861</v>
@@ -15173,7 +15173,7 @@
         <v>65781</v>
       </c>
       <c r="B117" t="n">
-        <v>131799</v>
+        <v>162571</v>
       </c>
       <c r="C117" t="s">
         <v>868</v>
@@ -15398,7 +15398,7 @@
         <v>65781</v>
       </c>
       <c r="B120" t="n">
-        <v>131800</v>
+        <v>131773</v>
       </c>
       <c r="C120" t="s">
         <v>891</v>
@@ -15473,7 +15473,7 @@
         <v>65781</v>
       </c>
       <c r="B121" t="n">
-        <v>131801</v>
+        <v>162572</v>
       </c>
       <c r="C121" t="s">
         <v>898</v>
@@ -15623,7 +15623,7 @@
         <v>65781</v>
       </c>
       <c r="B123" t="n">
-        <v>131802</v>
+        <v>162573</v>
       </c>
       <c r="C123" t="s">
         <v>914</v>
@@ -15826,7 +15826,7 @@
         <v>65781</v>
       </c>
       <c r="B126" t="n">
-        <v>131803</v>
+        <v>162574</v>
       </c>
       <c r="C126" t="s">
         <v>934</v>
@@ -15895,7 +15895,7 @@
         <v>65781</v>
       </c>
       <c r="B127" t="n">
-        <v>131804</v>
+        <v>162575</v>
       </c>
       <c r="C127" t="s">
         <v>944</v>
@@ -15966,7 +15966,7 @@
         <v>65781</v>
       </c>
       <c r="B128" t="n">
-        <v>131805</v>
+        <v>162576</v>
       </c>
       <c r="C128" t="s">
         <v>954</v>
@@ -16039,7 +16039,7 @@
         <v>65781</v>
       </c>
       <c r="B129" t="n">
-        <v>131806</v>
+        <v>162577</v>
       </c>
       <c r="C129" t="s">
         <v>958</v>
@@ -16110,7 +16110,7 @@
         <v>65781</v>
       </c>
       <c r="B130" t="n">
-        <v>131807</v>
+        <v>162578</v>
       </c>
       <c r="C130" t="s">
         <v>967</v>
@@ -16185,7 +16185,7 @@
         <v>65781</v>
       </c>
       <c r="B131" t="n">
-        <v>131808</v>
+        <v>162579</v>
       </c>
       <c r="C131" t="s">
         <v>974</v>
@@ -16260,7 +16260,7 @@
         <v>65781</v>
       </c>
       <c r="B132" t="n">
-        <v>131809</v>
+        <v>162580</v>
       </c>
       <c r="C132" t="s">
         <v>981</v>
@@ -16335,7 +16335,7 @@
         <v>65781</v>
       </c>
       <c r="B133" t="n">
-        <v>131810</v>
+        <v>162581</v>
       </c>
       <c r="C133" t="s">
         <v>987</v>
@@ -16621,7 +16621,7 @@
         <v>65781</v>
       </c>
       <c r="B137" t="n">
-        <v>131811</v>
+        <v>162582</v>
       </c>
       <c r="C137" t="s">
         <v>1015</v>
@@ -16696,7 +16696,7 @@
         <v>65781</v>
       </c>
       <c r="B138" t="n">
-        <v>131812</v>
+        <v>162583</v>
       </c>
       <c r="C138" t="s">
         <v>1022</v>
@@ -16769,7 +16769,7 @@
         <v>65781</v>
       </c>
       <c r="B139" t="n">
-        <v>131813</v>
+        <v>162584</v>
       </c>
       <c r="C139" t="s">
         <v>1025</v>
@@ -16844,7 +16844,7 @@
         <v>65781</v>
       </c>
       <c r="B140" t="n">
-        <v>131814</v>
+        <v>162585</v>
       </c>
       <c r="C140" t="s">
         <v>1032</v>
@@ -16990,7 +16990,7 @@
         <v>65781</v>
       </c>
       <c r="B142" t="n">
-        <v>131815</v>
+        <v>162586</v>
       </c>
       <c r="C142" t="s">
         <v>1047</v>
@@ -17059,7 +17059,7 @@
         <v>65781</v>
       </c>
       <c r="B143" t="n">
-        <v>131816</v>
+        <v>162587</v>
       </c>
       <c r="C143" t="s">
         <v>1054</v>
@@ -17203,7 +17203,7 @@
         <v>65781</v>
       </c>
       <c r="B145" t="n">
-        <v>131817</v>
+        <v>162588</v>
       </c>
       <c r="C145" t="s">
         <v>1069</v>
@@ -17274,7 +17274,7 @@
         <v>65781</v>
       </c>
       <c r="B146" t="n">
-        <v>131818</v>
+        <v>162589</v>
       </c>
       <c r="C146" t="s">
         <v>1078</v>
@@ -17349,7 +17349,7 @@
         <v>65781</v>
       </c>
       <c r="B147" t="n">
-        <v>131819</v>
+        <v>162590</v>
       </c>
       <c r="C147" t="s">
         <v>1085</v>
@@ -17424,7 +17424,7 @@
         <v>65781</v>
       </c>
       <c r="B148" t="n">
-        <v>131820</v>
+        <v>162591</v>
       </c>
       <c r="C148" t="s">
         <v>1092</v>
@@ -17495,7 +17495,7 @@
         <v>65781</v>
       </c>
       <c r="B149" t="n">
-        <v>131821</v>
+        <v>162592</v>
       </c>
       <c r="C149" t="s">
         <v>1101</v>
@@ -17570,7 +17570,7 @@
         <v>65781</v>
       </c>
       <c r="B150" t="n">
-        <v>131822</v>
+        <v>162593</v>
       </c>
       <c r="C150" t="s">
         <v>1107</v>
@@ -17643,7 +17643,7 @@
         <v>65781</v>
       </c>
       <c r="B151" t="n">
-        <v>131823</v>
+        <v>162594</v>
       </c>
       <c r="C151" t="s">
         <v>1111</v>
@@ -17718,7 +17718,7 @@
         <v>65781</v>
       </c>
       <c r="B152" t="n">
-        <v>131824</v>
+        <v>162595</v>
       </c>
       <c r="C152" t="s">
         <v>1118</v>
@@ -17791,7 +17791,7 @@
         <v>65781</v>
       </c>
       <c r="B153" t="n">
-        <v>131825</v>
+        <v>162596</v>
       </c>
       <c r="C153" t="s">
         <v>1124</v>
@@ -17860,7 +17860,7 @@
         <v>65781</v>
       </c>
       <c r="B154" t="n">
-        <v>131826</v>
+        <v>162597</v>
       </c>
       <c r="C154" t="s">
         <v>1131</v>
@@ -17931,7 +17931,7 @@
         <v>65781</v>
       </c>
       <c r="B155" t="n">
-        <v>131827</v>
+        <v>162598</v>
       </c>
       <c r="C155" t="s">
         <v>1140</v>
@@ -18154,7 +18154,7 @@
         <v>65781</v>
       </c>
       <c r="B158" t="n">
-        <v>131828</v>
+        <v>162599</v>
       </c>
       <c r="C158" t="s">
         <v>1158</v>
@@ -18219,7 +18219,7 @@
         <v>65781</v>
       </c>
       <c r="B159" t="n">
-        <v>131829</v>
+        <v>162600</v>
       </c>
       <c r="C159" t="s">
         <v>1167</v>
@@ -18424,7 +18424,7 @@
         <v>65781</v>
       </c>
       <c r="B162" t="n">
-        <v>131830</v>
+        <v>162601</v>
       </c>
       <c r="C162" t="s">
         <v>1191</v>
@@ -18493,7 +18493,7 @@
         <v>65781</v>
       </c>
       <c r="B163" t="n">
-        <v>131831</v>
+        <v>162602</v>
       </c>
       <c r="C163" t="s">
         <v>1198</v>
@@ -18558,7 +18558,7 @@
         <v>65781</v>
       </c>
       <c r="B164" t="n">
-        <v>131832</v>
+        <v>162603</v>
       </c>
       <c r="C164" t="s">
         <v>1205</v>
@@ -18629,7 +18629,7 @@
         <v>65781</v>
       </c>
       <c r="B165" t="n">
-        <v>131833</v>
+        <v>162604</v>
       </c>
       <c r="C165" t="s">
         <v>1213</v>
@@ -18704,7 +18704,7 @@
         <v>65781</v>
       </c>
       <c r="B166" t="n">
-        <v>131834</v>
+        <v>162605</v>
       </c>
       <c r="C166" t="s">
         <v>1222</v>
@@ -19065,7 +19065,7 @@
         <v>65781</v>
       </c>
       <c r="B171" t="n">
-        <v>131835</v>
+        <v>162606</v>
       </c>
       <c r="C171" t="s">
         <v>1255</v>
@@ -19140,7 +19140,7 @@
         <v>65781</v>
       </c>
       <c r="B172" t="n">
-        <v>131836</v>
+        <v>162607</v>
       </c>
       <c r="C172" t="s">
         <v>1261</v>
@@ -19213,7 +19213,7 @@
         <v>65781</v>
       </c>
       <c r="B173" t="n">
-        <v>131837</v>
+        <v>162608</v>
       </c>
       <c r="C173" t="s">
         <v>1264</v>
@@ -19288,7 +19288,7 @@
         <v>65781</v>
       </c>
       <c r="B174" t="n">
-        <v>131838</v>
+        <v>162609</v>
       </c>
       <c r="C174" t="s">
         <v>1270</v>
@@ -19363,7 +19363,7 @@
         <v>65781</v>
       </c>
       <c r="B175" t="n">
-        <v>131839</v>
+        <v>162610</v>
       </c>
       <c r="C175" t="s">
         <v>1277</v>
@@ -19503,7 +19503,7 @@
         <v>65781</v>
       </c>
       <c r="B177" t="n">
-        <v>131840</v>
+        <v>162611</v>
       </c>
       <c r="C177" t="s">
         <v>1292</v>
@@ -19578,7 +19578,7 @@
         <v>65781</v>
       </c>
       <c r="B178" t="n">
-        <v>131841</v>
+        <v>162612</v>
       </c>
       <c r="C178" t="s">
         <v>1298</v>
@@ -19728,7 +19728,7 @@
         <v>65781</v>
       </c>
       <c r="B180" t="n">
-        <v>131842</v>
+        <v>162613</v>
       </c>
       <c r="C180" t="s">
         <v>1312</v>
@@ -20018,7 +20018,7 @@
         <v>65781</v>
       </c>
       <c r="B184" t="n">
-        <v>131843</v>
+        <v>162614</v>
       </c>
       <c r="C184" t="s">
         <v>1338</v>
@@ -20166,7 +20166,7 @@
         <v>65781</v>
       </c>
       <c r="B186" t="n">
-        <v>131844</v>
+        <v>162615</v>
       </c>
       <c r="C186" t="s">
         <v>1350</v>
@@ -20241,7 +20241,7 @@
         <v>65781</v>
       </c>
       <c r="B187" t="n">
-        <v>131845</v>
+        <v>162616</v>
       </c>
       <c r="C187" t="s">
         <v>1359</v>
@@ -20456,7 +20456,7 @@
         <v>65781</v>
       </c>
       <c r="B190" t="n">
-        <v>131846</v>
+        <v>162617</v>
       </c>
       <c r="C190" t="s">
         <v>1379</v>
@@ -20531,7 +20531,7 @@
         <v>65781</v>
       </c>
       <c r="B191" t="n">
-        <v>131847</v>
+        <v>162618</v>
       </c>
       <c r="C191" t="s">
         <v>1386</v>
@@ -20606,7 +20606,7 @@
         <v>65781</v>
       </c>
       <c r="B192" t="n">
-        <v>131848</v>
+        <v>162619</v>
       </c>
       <c r="C192" t="s">
         <v>1393</v>
@@ -20681,7 +20681,7 @@
         <v>65781</v>
       </c>
       <c r="B193" t="n">
-        <v>131849</v>
+        <v>162620</v>
       </c>
       <c r="C193" t="s">
         <v>1401</v>
@@ -20898,7 +20898,7 @@
         <v>65781</v>
       </c>
       <c r="B196" t="n">
-        <v>131850</v>
+        <v>162621</v>
       </c>
       <c r="C196" t="s">
         <v>1418</v>
@@ -20973,7 +20973,7 @@
         <v>65781</v>
       </c>
       <c r="B197" t="n">
-        <v>131851</v>
+        <v>162622</v>
       </c>
       <c r="C197" t="s">
         <v>1424</v>
@@ -21048,7 +21048,7 @@
         <v>65781</v>
       </c>
       <c r="B198" t="n">
-        <v>131852</v>
+        <v>162623</v>
       </c>
       <c r="C198" t="s">
         <v>1433</v>
@@ -21121,7 +21121,7 @@
         <v>65781</v>
       </c>
       <c r="B199" t="n">
-        <v>131853</v>
+        <v>162624</v>
       </c>
       <c r="C199" t="s">
         <v>1436</v>
@@ -21194,7 +21194,7 @@
         <v>65781</v>
       </c>
       <c r="B200" t="n">
-        <v>131854</v>
+        <v>162625</v>
       </c>
       <c r="C200" t="s">
         <v>1442</v>
@@ -21407,7 +21407,7 @@
         <v>65781</v>
       </c>
       <c r="B203" t="n">
-        <v>131855</v>
+        <v>162626</v>
       </c>
       <c r="C203" t="s">
         <v>1459</v>
@@ -21474,7 +21474,7 @@
         <v>65781</v>
       </c>
       <c r="B204" t="n">
-        <v>131856</v>
+        <v>162627</v>
       </c>
       <c r="C204" t="s">
         <v>1467</v>
@@ -21549,7 +21549,7 @@
         <v>65781</v>
       </c>
       <c r="B205" t="n">
-        <v>131857</v>
+        <v>162628</v>
       </c>
       <c r="C205" t="s">
         <v>1474</v>
@@ -21620,7 +21620,7 @@
         <v>65781</v>
       </c>
       <c r="B206" t="n">
-        <v>131858</v>
+        <v>162629</v>
       </c>
       <c r="C206" t="s">
         <v>1481</v>
@@ -21695,7 +21695,7 @@
         <v>65781</v>
       </c>
       <c r="B207" t="n">
-        <v>131859</v>
+        <v>162630</v>
       </c>
       <c r="C207" t="s">
         <v>1490</v>
@@ -21768,7 +21768,7 @@
         <v>65781</v>
       </c>
       <c r="B208" t="n">
-        <v>131860</v>
+        <v>162631</v>
       </c>
       <c r="C208" t="s">
         <v>1493</v>
@@ -21841,7 +21841,7 @@
         <v>65781</v>
       </c>
       <c r="B209" t="n">
-        <v>131861</v>
+        <v>162632</v>
       </c>
       <c r="C209" t="s">
         <v>1499</v>
@@ -21916,7 +21916,7 @@
         <v>65781</v>
       </c>
       <c r="B210" t="n">
-        <v>131862</v>
+        <v>162633</v>
       </c>
       <c r="C210" t="s">
         <v>1505</v>
@@ -21989,7 +21989,7 @@
         <v>65781</v>
       </c>
       <c r="B211" t="n">
-        <v>131863</v>
+        <v>162634</v>
       </c>
       <c r="C211" t="s">
         <v>1508</v>
@@ -22064,7 +22064,7 @@
         <v>65781</v>
       </c>
       <c r="B212" t="n">
-        <v>131864</v>
+        <v>162635</v>
       </c>
       <c r="C212" t="s">
         <v>1514</v>
@@ -22139,7 +22139,7 @@
         <v>65781</v>
       </c>
       <c r="B213" t="n">
-        <v>131865</v>
+        <v>162636</v>
       </c>
       <c r="C213" t="s">
         <v>1523</v>
@@ -22279,7 +22279,7 @@
         <v>65781</v>
       </c>
       <c r="B215" t="n">
-        <v>131866</v>
+        <v>162637</v>
       </c>
       <c r="C215" t="s">
         <v>1534</v>
@@ -22352,7 +22352,7 @@
         <v>65781</v>
       </c>
       <c r="B216" t="n">
-        <v>131867</v>
+        <v>162638</v>
       </c>
       <c r="C216" t="s">
         <v>1538</v>
@@ -22557,7 +22557,7 @@
         <v>65781</v>
       </c>
       <c r="B219" t="n">
-        <v>131868</v>
+        <v>162639</v>
       </c>
       <c r="C219" t="s">
         <v>1558</v>
@@ -22707,7 +22707,7 @@
         <v>65781</v>
       </c>
       <c r="B221" t="n">
-        <v>131869</v>
+        <v>162640</v>
       </c>
       <c r="C221" t="s">
         <v>1574</v>
@@ -22780,7 +22780,7 @@
         <v>65781</v>
       </c>
       <c r="B222" t="n">
-        <v>131870</v>
+        <v>162641</v>
       </c>
       <c r="C222" t="s">
         <v>1580</v>
@@ -22853,7 +22853,7 @@
         <v>65781</v>
       </c>
       <c r="B223" t="n">
-        <v>131871</v>
+        <v>162642</v>
       </c>
       <c r="C223" t="s">
         <v>1584</v>
@@ -22928,7 +22928,7 @@
         <v>65781</v>
       </c>
       <c r="B224" t="n">
-        <v>131872</v>
+        <v>131777</v>
       </c>
       <c r="C224" t="s">
         <v>1591</v>
@@ -23003,7 +23003,7 @@
         <v>65781</v>
       </c>
       <c r="B225" t="n">
-        <v>131873</v>
+        <v>162643</v>
       </c>
       <c r="C225" t="s">
         <v>1598</v>
@@ -23078,7 +23078,7 @@
         <v>65781</v>
       </c>
       <c r="B226" t="n">
-        <v>131874</v>
+        <v>162644</v>
       </c>
       <c r="C226" t="s">
         <v>1604</v>
@@ -23153,7 +23153,7 @@
         <v>65781</v>
       </c>
       <c r="B227" t="n">
-        <v>131875</v>
+        <v>162645</v>
       </c>
       <c r="C227" t="s">
         <v>1613</v>
@@ -23291,7 +23291,7 @@
         <v>65781</v>
       </c>
       <c r="B229" t="n">
-        <v>131876</v>
+        <v>162646</v>
       </c>
       <c r="C229" t="s">
         <v>1626</v>
@@ -23439,7 +23439,7 @@
         <v>65781</v>
       </c>
       <c r="B231" t="n">
-        <v>131877</v>
+        <v>162647</v>
       </c>
       <c r="C231" t="s">
         <v>1636</v>
@@ -23500,7 +23500,7 @@
         <v>65781</v>
       </c>
       <c r="B232" t="n">
-        <v>131878</v>
+        <v>162648</v>
       </c>
       <c r="C232" t="s">
         <v>1643</v>
@@ -23569,7 +23569,7 @@
         <v>65781</v>
       </c>
       <c r="B233" t="n">
-        <v>131879</v>
+        <v>162649</v>
       </c>
       <c r="C233" t="s">
         <v>1650</v>
@@ -23719,7 +23719,7 @@
         <v>65781</v>
       </c>
       <c r="B235" t="n">
-        <v>131880</v>
+        <v>162650</v>
       </c>
       <c r="C235" t="s">
         <v>1663</v>
@@ -23926,7 +23926,7 @@
         <v>65781</v>
       </c>
       <c r="B238" t="n">
-        <v>131881</v>
+        <v>162651</v>
       </c>
       <c r="C238" t="s">
         <v>1682</v>
@@ -23999,7 +23999,7 @@
         <v>65781</v>
       </c>
       <c r="B239" t="n">
-        <v>131882</v>
+        <v>162652</v>
       </c>
       <c r="C239" t="s">
         <v>1685</v>
@@ -24074,7 +24074,7 @@
         <v>65781</v>
       </c>
       <c r="B240" t="n">
-        <v>131883</v>
+        <v>162653</v>
       </c>
       <c r="C240" t="s">
         <v>1692</v>
@@ -24285,7 +24285,7 @@
         <v>65781</v>
       </c>
       <c r="B243" t="n">
-        <v>131884</v>
+        <v>162654</v>
       </c>
       <c r="C243" t="s">
         <v>1712</v>
@@ -24354,7 +24354,7 @@
         <v>65781</v>
       </c>
       <c r="B244" t="n">
-        <v>131885</v>
+        <v>162655</v>
       </c>
       <c r="C244" t="s">
         <v>1719</v>
@@ -24429,7 +24429,7 @@
         <v>65781</v>
       </c>
       <c r="B245" t="n">
-        <v>131886</v>
+        <v>162656</v>
       </c>
       <c r="C245" t="s">
         <v>1727</v>
@@ -24504,7 +24504,7 @@
         <v>65781</v>
       </c>
       <c r="B246" t="n">
-        <v>131887</v>
+        <v>162657</v>
       </c>
       <c r="C246" t="s">
         <v>1734</v>
@@ -24644,7 +24644,7 @@
         <v>65781</v>
       </c>
       <c r="B248" t="n">
-        <v>131799</v>
+        <v>131773</v>
       </c>
       <c r="C248" t="s">
         <v>891</v>
@@ -24719,7 +24719,7 @@
         <v>65781</v>
       </c>
       <c r="B249" t="n">
-        <v>131888</v>
+        <v>162658</v>
       </c>
       <c r="C249" t="s">
         <v>1758</v>
@@ -24794,7 +24794,7 @@
         <v>65781</v>
       </c>
       <c r="B250" t="n">
-        <v>131889</v>
+        <v>162659</v>
       </c>
       <c r="C250" t="s">
         <v>1764</v>
@@ -24859,7 +24859,7 @@
         <v>65781</v>
       </c>
       <c r="B251" t="n">
-        <v>131890</v>
+        <v>162660</v>
       </c>
       <c r="C251" t="s">
         <v>1771</v>
@@ -24934,7 +24934,7 @@
         <v>65781</v>
       </c>
       <c r="B252" t="n">
-        <v>131891</v>
+        <v>162661</v>
       </c>
       <c r="C252" t="s">
         <v>1778</v>
@@ -24999,7 +24999,7 @@
         <v>65781</v>
       </c>
       <c r="B253" t="n">
-        <v>131892</v>
+        <v>162662</v>
       </c>
       <c r="C253" t="s">
         <v>1785</v>
@@ -25074,7 +25074,7 @@
         <v>65781</v>
       </c>
       <c r="B254" t="n">
-        <v>131893</v>
+        <v>162663</v>
       </c>
       <c r="C254" t="s">
         <v>1791</v>
@@ -25145,7 +25145,7 @@
         <v>65781</v>
       </c>
       <c r="B255" t="n">
-        <v>131894</v>
+        <v>162664</v>
       </c>
       <c r="C255" t="s">
         <v>1798</v>
@@ -25220,7 +25220,7 @@
         <v>65781</v>
       </c>
       <c r="B256" t="n">
-        <v>131895</v>
+        <v>162665</v>
       </c>
       <c r="C256" t="s">
         <v>1805</v>
@@ -25356,7 +25356,7 @@
         <v>65781</v>
       </c>
       <c r="B258" t="n">
-        <v>131896</v>
+        <v>162666</v>
       </c>
       <c r="C258" t="s">
         <v>1821</v>
@@ -25431,7 +25431,7 @@
         <v>65781</v>
       </c>
       <c r="B259" t="n">
-        <v>131897</v>
+        <v>162667</v>
       </c>
       <c r="C259" t="s">
         <v>1827</v>
@@ -25504,7 +25504,7 @@
         <v>65781</v>
       </c>
       <c r="B260" t="n">
-        <v>131898</v>
+        <v>162668</v>
       </c>
       <c r="C260" t="s">
         <v>1831</v>
@@ -25579,7 +25579,7 @@
         <v>65781</v>
       </c>
       <c r="B261" t="n">
-        <v>131899</v>
+        <v>162669</v>
       </c>
       <c r="C261" t="s">
         <v>1838</v>
@@ -25654,7 +25654,7 @@
         <v>65781</v>
       </c>
       <c r="B262" t="n">
-        <v>131900</v>
+        <v>162670</v>
       </c>
       <c r="C262" t="s">
         <v>1845</v>
@@ -25725,7 +25725,7 @@
         <v>65781</v>
       </c>
       <c r="B263" t="n">
-        <v>131901</v>
+        <v>162671</v>
       </c>
       <c r="C263" t="s">
         <v>1851</v>
@@ -25800,7 +25800,7 @@
         <v>65781</v>
       </c>
       <c r="B264" t="n">
-        <v>131902</v>
+        <v>162672</v>
       </c>
       <c r="C264" t="s">
         <v>1858</v>
@@ -25873,7 +25873,7 @@
         <v>65781</v>
       </c>
       <c r="B265" t="n">
-        <v>131903</v>
+        <v>162673</v>
       </c>
       <c r="C265" t="s">
         <v>1861</v>
@@ -25948,7 +25948,7 @@
         <v>65781</v>
       </c>
       <c r="B266" t="n">
-        <v>131904</v>
+        <v>162674</v>
       </c>
       <c r="C266" t="s">
         <v>1868</v>
@@ -26021,7 +26021,7 @@
         <v>65781</v>
       </c>
       <c r="B267" t="n">
-        <v>131905</v>
+        <v>162675</v>
       </c>
       <c r="C267" t="s">
         <v>1872</v>
@@ -26094,7 +26094,7 @@
         <v>65781</v>
       </c>
       <c r="B268" t="n">
-        <v>131906</v>
+        <v>162676</v>
       </c>
       <c r="C268" t="s">
         <v>1876</v>
@@ -26165,7 +26165,7 @@
         <v>65781</v>
       </c>
       <c r="B269" t="n">
-        <v>131907</v>
+        <v>162677</v>
       </c>
       <c r="C269" t="s">
         <v>1883</v>
@@ -26240,7 +26240,7 @@
         <v>65781</v>
       </c>
       <c r="B270" t="n">
-        <v>131908</v>
+        <v>162678</v>
       </c>
       <c r="C270" t="s">
         <v>1890</v>
@@ -26313,7 +26313,7 @@
         <v>65781</v>
       </c>
       <c r="B271" t="n">
-        <v>131909</v>
+        <v>162679</v>
       </c>
       <c r="C271" t="s">
         <v>1894</v>
@@ -26388,7 +26388,7 @@
         <v>65781</v>
       </c>
       <c r="B272" t="n">
-        <v>131910</v>
+        <v>162680</v>
       </c>
       <c r="C272" t="s">
         <v>1901</v>
@@ -26528,7 +26528,7 @@
         <v>65781</v>
       </c>
       <c r="B274" t="n">
-        <v>131911</v>
+        <v>162681</v>
       </c>
       <c r="C274" t="s">
         <v>1916</v>
@@ -26676,7 +26676,7 @@
         <v>65781</v>
       </c>
       <c r="B276" t="n">
-        <v>131912</v>
+        <v>162682</v>
       </c>
       <c r="C276" t="s">
         <v>1926</v>
@@ -26749,7 +26749,7 @@
         <v>65781</v>
       </c>
       <c r="B277" t="n">
-        <v>131913</v>
+        <v>162683</v>
       </c>
       <c r="C277" t="s">
         <v>1933</v>
@@ -26822,7 +26822,7 @@
         <v>65781</v>
       </c>
       <c r="B278" t="n">
-        <v>131914</v>
+        <v>162684</v>
       </c>
       <c r="C278" t="s">
         <v>1937</v>
@@ -26895,7 +26895,7 @@
         <v>65781</v>
       </c>
       <c r="B279" t="n">
-        <v>131915</v>
+        <v>162685</v>
       </c>
       <c r="C279" t="s">
         <v>1941</v>
@@ -26970,7 +26970,7 @@
         <v>65781</v>
       </c>
       <c r="B280" t="n">
-        <v>131916</v>
+        <v>162686</v>
       </c>
       <c r="C280" t="s">
         <v>1950</v>
@@ -27045,7 +27045,7 @@
         <v>65781</v>
       </c>
       <c r="B281" t="n">
-        <v>131917</v>
+        <v>162687</v>
       </c>
       <c r="C281" t="s">
         <v>1956</v>
@@ -27120,7 +27120,7 @@
         <v>65781</v>
       </c>
       <c r="B282" t="n">
-        <v>131918</v>
+        <v>162688</v>
       </c>
       <c r="C282" t="s">
         <v>1963</v>
@@ -27195,7 +27195,7 @@
         <v>65781</v>
       </c>
       <c r="B283" t="n">
-        <v>131919</v>
+        <v>162689</v>
       </c>
       <c r="C283" t="s">
         <v>1969</v>
@@ -27270,7 +27270,7 @@
         <v>65781</v>
       </c>
       <c r="B284" t="n">
-        <v>131920</v>
+        <v>162690</v>
       </c>
       <c r="C284" t="s">
         <v>1975</v>
@@ -27345,7 +27345,7 @@
         <v>65781</v>
       </c>
       <c r="B285" t="n">
-        <v>131921</v>
+        <v>162691</v>
       </c>
       <c r="C285" t="s">
         <v>1982</v>
@@ -27420,7 +27420,7 @@
         <v>65781</v>
       </c>
       <c r="B286" t="n">
-        <v>131922</v>
+        <v>162692</v>
       </c>
       <c r="C286" t="s">
         <v>1988</v>
@@ -27485,7 +27485,7 @@
         <v>65781</v>
       </c>
       <c r="B287" t="n">
-        <v>131923</v>
+        <v>162693</v>
       </c>
       <c r="C287" t="s">
         <v>1997</v>
@@ -27558,7 +27558,7 @@
         <v>65781</v>
       </c>
       <c r="B288" t="n">
-        <v>131924</v>
+        <v>162694</v>
       </c>
       <c r="C288" t="s">
         <v>2001</v>
@@ -27631,7 +27631,7 @@
         <v>65781</v>
       </c>
       <c r="B289" t="n">
-        <v>131925</v>
+        <v>162695</v>
       </c>
       <c r="C289" t="s">
         <v>2005</v>
@@ -27704,7 +27704,7 @@
         <v>65781</v>
       </c>
       <c r="B290" t="n">
-        <v>131926</v>
+        <v>162696</v>
       </c>
       <c r="C290" t="s">
         <v>2008</v>
@@ -27769,7 +27769,7 @@
         <v>65781</v>
       </c>
       <c r="B291" t="n">
-        <v>131871</v>
+        <v>131777</v>
       </c>
       <c r="C291" t="s">
         <v>1591</v>
@@ -27844,7 +27844,7 @@
         <v>65781</v>
       </c>
       <c r="B292" t="n">
-        <v>131927</v>
+        <v>162697</v>
       </c>
       <c r="C292" t="s">
         <v>2020</v>
@@ -27917,7 +27917,7 @@
         <v>65781</v>
       </c>
       <c r="B293" t="n">
-        <v>131928</v>
+        <v>162698</v>
       </c>
       <c r="C293" t="s">
         <v>2024</v>
@@ -27990,7 +27990,7 @@
         <v>65781</v>
       </c>
       <c r="B294" t="n">
-        <v>131929</v>
+        <v>162699</v>
       </c>
       <c r="C294" t="s">
         <v>2028</v>
@@ -28055,7 +28055,7 @@
         <v>65781</v>
       </c>
       <c r="B295" t="n">
-        <v>131930</v>
+        <v>162700</v>
       </c>
       <c r="C295" t="s">
         <v>2037</v>
@@ -28130,7 +28130,7 @@
         <v>65781</v>
       </c>
       <c r="B296" t="n">
-        <v>131931</v>
+        <v>162701</v>
       </c>
       <c r="C296" t="s">
         <v>2044</v>
@@ -28349,7 +28349,7 @@
         <v>65781</v>
       </c>
       <c r="B299" t="n">
-        <v>131932</v>
+        <v>162702</v>
       </c>
       <c r="C299" t="s">
         <v>2062</v>
@@ -28418,7 +28418,7 @@
         <v>65781</v>
       </c>
       <c r="B300" t="n">
-        <v>131933</v>
+        <v>162703</v>
       </c>
       <c r="C300" t="s">
         <v>2071</v>
@@ -28493,7 +28493,7 @@
         <v>65781</v>
       </c>
       <c r="B301" t="n">
-        <v>131934</v>
+        <v>162704</v>
       </c>
       <c r="C301" t="s">
         <v>2077</v>
@@ -28767,7 +28767,7 @@
         <v>65781</v>
       </c>
       <c r="B305" t="n">
-        <v>131935</v>
+        <v>162705</v>
       </c>
       <c r="C305" t="s">
         <v>2104</v>
@@ -28838,7 +28838,7 @@
         <v>65781</v>
       </c>
       <c r="B306" t="n">
-        <v>131936</v>
+        <v>162706</v>
       </c>
       <c r="C306" t="s">
         <v>2113</v>
@@ -29049,7 +29049,7 @@
         <v>65781</v>
       </c>
       <c r="B309" t="n">
-        <v>131937</v>
+        <v>162707</v>
       </c>
       <c r="C309" t="s">
         <v>2132</v>
@@ -29114,7 +29114,7 @@
         <v>65781</v>
       </c>
       <c r="B310" t="n">
-        <v>131938</v>
+        <v>162708</v>
       </c>
       <c r="C310" t="s">
         <v>2138</v>
@@ -29189,7 +29189,7 @@
         <v>65781</v>
       </c>
       <c r="B311" t="n">
-        <v>131939</v>
+        <v>162709</v>
       </c>
       <c r="C311" t="s">
         <v>2144</v>
@@ -29331,7 +29331,7 @@
         <v>65781</v>
       </c>
       <c r="B313" t="n">
-        <v>131940</v>
+        <v>162710</v>
       </c>
       <c r="C313" t="s">
         <v>2160</v>
